--- a/simlab_sensitivity_analysis/sensitive_parameters.xlsx
+++ b/simlab_sensitivity_analysis/sensitive_parameters.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\simlab_sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{160060CA-D628-4D28-A6E0-539D55FF62B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51B4C7D-33C8-4A13-9984-4EC7CDF9B368}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="小麦" sheetId="1" r:id="rId1"/>
+    <sheet name="水稻" sheetId="3" r:id="rId2"/>
+    <sheet name="敏感性分析对象" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,17 +34,496 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="157">
   <si>
     <t>参数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取值范围</t>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>序号</t>
+    <t>最小值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSUM2</t>
+  </si>
+  <si>
+    <t>TDWI</t>
+  </si>
+  <si>
+    <t>RGRLAI</t>
+  </si>
+  <si>
+    <t>SPAN</t>
+  </si>
+  <si>
+    <t>TBASE</t>
+  </si>
+  <si>
+    <t>CVL</t>
+  </si>
+  <si>
+    <t>CVO</t>
+  </si>
+  <si>
+    <t>CVR</t>
+  </si>
+  <si>
+    <t>CVS</t>
+  </si>
+  <si>
+    <t>Q10</t>
+  </si>
+  <si>
+    <t>RML</t>
+  </si>
+  <si>
+    <t>RMO</t>
+  </si>
+  <si>
+    <t>RMR</t>
+  </si>
+  <si>
+    <t>RMS</t>
+  </si>
+  <si>
+    <t>RDI</t>
+  </si>
+  <si>
+    <t>RRI</t>
+  </si>
+  <si>
+    <t>RDMCR</t>
+  </si>
+  <si>
+    <t>WAV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMLIM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAIEM</t>
+  </si>
+  <si>
+    <t>SLATB0</t>
+  </si>
+  <si>
+    <t>SLATB0.5</t>
+  </si>
+  <si>
+    <t>KDIFTB0</t>
+  </si>
+  <si>
+    <t>KDIFTB2</t>
+  </si>
+  <si>
+    <t>EFFTB0</t>
+  </si>
+  <si>
+    <t>EFFTB40</t>
+  </si>
+  <si>
+    <t>AMAXTB0.0</t>
+  </si>
+  <si>
+    <t>AMAXTB1.0</t>
+  </si>
+  <si>
+    <t>AMAXTB1.3</t>
+  </si>
+  <si>
+    <t>TMPFTB0</t>
+  </si>
+  <si>
+    <t>TMPFTB10</t>
+  </si>
+  <si>
+    <t>FRTB0</t>
+  </si>
+  <si>
+    <t>FRTB0.4</t>
+  </si>
+  <si>
+    <t>FRTB0.7</t>
+  </si>
+  <si>
+    <t>FRTB0.9</t>
+  </si>
+  <si>
+    <t>FLTB0</t>
+  </si>
+  <si>
+    <t>FLTB0.25</t>
+  </si>
+  <si>
+    <t>FLTB0.5</t>
+  </si>
+  <si>
+    <t>FLTB0.646</t>
+  </si>
+  <si>
+    <t>RDRRTB1.5</t>
+  </si>
+  <si>
+    <t>RDRRTB2.0</t>
+  </si>
+  <si>
+    <t>RDRSTB1.5</t>
+  </si>
+  <si>
+    <t>RDRSTB2.0</t>
+  </si>
+  <si>
+    <t>0.12285</t>
+  </si>
+  <si>
+    <t>0.15015</t>
+  </si>
+  <si>
+    <t>0.007353</t>
+  </si>
+  <si>
+    <t>0.008987</t>
+  </si>
+  <si>
+    <t>0.001908</t>
+  </si>
+  <si>
+    <t>0.002332</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.405</t>
+  </si>
+  <si>
+    <t>0.495</t>
+  </si>
+  <si>
+    <t>32.247</t>
+  </si>
+  <si>
+    <t>39.413</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>0.6165</t>
+  </si>
+  <si>
+    <t>0.7535</t>
+  </si>
+  <si>
+    <t>0.6381</t>
+  </si>
+  <si>
+    <t>0.7799</t>
+  </si>
+  <si>
+    <t>0.6246</t>
+  </si>
+  <si>
+    <t>0.7634</t>
+  </si>
+  <si>
+    <t>0.5958</t>
+  </si>
+  <si>
+    <t>0.7282</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.0135</t>
+  </si>
+  <si>
+    <t>0.0165</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.55</t>
+  </si>
+  <si>
+    <t>0.153</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.72</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.77</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1.08</t>
+  </si>
+  <si>
+    <t>1.32</t>
+  </si>
+  <si>
+    <t>112.5</t>
+  </si>
+  <si>
+    <t>137.5</t>
+  </si>
+  <si>
+    <t>初始作物总干重</t>
+  </si>
+  <si>
+    <t>出苗时的叶面积指数</t>
+  </si>
+  <si>
+    <t>叶面积指数最大增长率</t>
+  </si>
+  <si>
+    <t>生育期为0时的比叶面积</t>
+  </si>
+  <si>
+    <t>生育期为0.5时的比叶面积</t>
+  </si>
+  <si>
+    <t>在35℃时叶面积的生命周期</t>
+  </si>
+  <si>
+    <t>叶龄的低温阈值</t>
+  </si>
+  <si>
+    <t>生育期为0时可见光散射消光系数</t>
+  </si>
+  <si>
+    <t>生育期为2.0时可见光散射消光系数</t>
+  </si>
+  <si>
+    <t>平均温度为0C时单叶最大光能利用率</t>
+  </si>
+  <si>
+    <t>平均温度为40℃时单叶最大光能利用率</t>
+  </si>
+  <si>
+    <t>生育期为0时单叶最大CO2同化速率</t>
+  </si>
+  <si>
+    <t>生育期为1.0时单叶最大CO2同化速率</t>
+  </si>
+  <si>
+    <t>生育期为1.3时单叶最大CO2同化速率</t>
+  </si>
+  <si>
+    <t>最大光合速率在10C时校正因子</t>
+  </si>
+  <si>
+    <t>叶片同化物转换效率</t>
+  </si>
+  <si>
+    <t>储存器官同化物转换效率</t>
+  </si>
+  <si>
+    <t>根同化物转换效率</t>
+  </si>
+  <si>
+    <t>茎同化物转换效率</t>
+  </si>
+  <si>
+    <t>温度增加 10℃，呼吸速率相对改变量</t>
+  </si>
+  <si>
+    <t>叶片的维持呼吸速率</t>
+  </si>
+  <si>
+    <t>储存器官的维持呼吸速率</t>
+  </si>
+  <si>
+    <t>根的维持呼吸速率</t>
+  </si>
+  <si>
+    <t>茎的维持呼吸速率</t>
+  </si>
+  <si>
+    <t>生育期为0时根干物质分配系数</t>
+  </si>
+  <si>
+    <t>生育期为0.4时根干物质分配系数</t>
+  </si>
+  <si>
+    <t>生育期为0.7时根干物质分配系数</t>
+  </si>
+  <si>
+    <t>生育期为0.9时根干物质分配系数</t>
+  </si>
+  <si>
+    <t>生育期为0时叶干物质分配系数</t>
+  </si>
+  <si>
+    <t>生育期为0.25时叶干物质分配系数</t>
+  </si>
+  <si>
+    <t>生育期为0.5时叶干物质分配系数</t>
+  </si>
+  <si>
+    <t>生育期为0.646时叶干物质分配系数</t>
+  </si>
+  <si>
+    <t>生育期为1.5时根的死亡率</t>
+  </si>
+  <si>
+    <t>生育期为2.0时根的死亡率</t>
+  </si>
+  <si>
+    <t>生育期为1.5时茎的死亡率</t>
+  </si>
+  <si>
+    <t>生育期为2.0时茎的死亡率</t>
+  </si>
+  <si>
+    <t>初始根长</t>
+  </si>
+  <si>
+    <t>根深日最大增长率</t>
+  </si>
+  <si>
+    <t>最大根深</t>
+  </si>
+  <si>
+    <t>定义Define</t>
+  </si>
+  <si>
+    <t>TSUMI</t>
+  </si>
+  <si>
+    <t>开花到成熟时的积温</t>
+  </si>
+  <si>
+    <t>出苗到开花时的积温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大光合速率在0℃时校正因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAI</t>
+  </si>
+  <si>
+    <t>TAGP</t>
+  </si>
+  <si>
+    <t>TWSO</t>
+  </si>
+  <si>
+    <t>系统中可用的磷含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果实重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上生物量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶面积指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播种时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CROPTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个土壤剖面中的初始水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAVAILI</t>
+  </si>
+  <si>
+    <t>PAVAILI</t>
+  </si>
+  <si>
+    <t>KAVAILI</t>
+  </si>
+  <si>
+    <t>系统中可用的氮含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中可用的钾含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始根系深度区域的最大湿度含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPUPTAKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物实际吸收的磷含量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -50,7 +531,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,6 +546,19 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF182026"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -74,7 +568,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -82,14 +576,41 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -371,26 +892,851 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="32.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="1">
+        <v>854</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D3" s="1">
+        <v>765</v>
+      </c>
+      <c r="E3" s="1">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="1">
+        <v>180</v>
+      </c>
+      <c r="E4" s="1">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="1">
+        <v>28.17</v>
+      </c>
+      <c r="E9" s="1">
+        <v>34.43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1.8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="1">
+        <v>20</v>
+      </c>
+      <c r="E44" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D46" s="1">
+        <v>50</v>
+      </c>
+      <c r="E46" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="1">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2019271</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2019300</v>
       </c>
     </row>
   </sheetData>
@@ -398,4 +1744,633 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E69632-0D33-45C3-B0EF-EF4581867B0B}">
+  <dimension ref="A1:E49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE909BEB-9E41-4B6A-ACBB-67A42FDE640F}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/simlab_sensitivity_analysis/sensitive_parameters.xlsx
+++ b/simlab_sensitivity_analysis/sensitive_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\simlab_sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7088F395-B6C0-4A46-924C-338BBF673BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1205E5-4326-4642-B05C-0BACEE84F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小麦" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="201">
   <si>
     <t>参数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -105,69 +105,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SLATB0</t>
-  </si>
-  <si>
-    <t>SLATB0.5</t>
-  </si>
-  <si>
-    <t>KDIFTB0</t>
-  </si>
-  <si>
-    <t>KDIFTB2</t>
-  </si>
-  <si>
-    <t>EFFTB0</t>
-  </si>
-  <si>
-    <t>EFFTB40</t>
-  </si>
-  <si>
-    <t>AMAXTB0.0</t>
-  </si>
-  <si>
-    <t>AMAXTB1.0</t>
-  </si>
-  <si>
-    <t>AMAXTB1.3</t>
-  </si>
-  <si>
-    <t>TMPFTB0</t>
-  </si>
-  <si>
-    <t>TMPFTB10</t>
-  </si>
-  <si>
-    <t>FRTB0.7</t>
-  </si>
-  <si>
-    <t>FRTB0.9</t>
-  </si>
-  <si>
-    <t>FLTB0</t>
-  </si>
-  <si>
-    <t>FLTB0.25</t>
-  </si>
-  <si>
-    <t>FLTB0.5</t>
-  </si>
-  <si>
-    <t>FLTB0.646</t>
-  </si>
-  <si>
-    <t>RDRRTB1.5</t>
-  </si>
-  <si>
-    <t>RDRRTB2.0</t>
-  </si>
-  <si>
-    <t>RDRSTB1.5</t>
-  </si>
-  <si>
-    <t>RDRSTB2.0</t>
-  </si>
-  <si>
     <t>0.54</t>
   </si>
   <si>
@@ -416,291 +353,515 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>TAGP</t>
+  </si>
+  <si>
+    <t>TWSO</t>
+  </si>
+  <si>
+    <t>系统中可用的磷含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>果实重量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地上生物量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叶面积指数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>播种时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CROPTIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整个土壤剖面中的初始水量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAVAILI</t>
+  </si>
+  <si>
+    <t>PAVAILI</t>
+  </si>
+  <si>
+    <t>KAVAILI</t>
+  </si>
+  <si>
+    <t>系统中可用的氮含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统中可用的钾含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始根系深度区域的最大湿度含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPUPTAKE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>植物实际吸收的磷含量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSUM1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TSUM2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TDWI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NAVAILI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PAVAILI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KAVAILI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLATB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLATB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDIFTB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDIFTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFTB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EFFTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00, 0.00212,           0.50, 0.00212,        2.00, 0.00212]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00, 0.600,               2.00, 0.600]</t>
+  </si>
+  <si>
+    <t>[ 0.0, 0.450,               40.0, 0.450]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00, 35.83,               1.00, 35.83,               1.30, 35.83,               2.00, 4.48]</t>
+  </si>
+  <si>
+    <t>[ 0.0, 0.010,               10.0, 0.600,               15.0, 1.000,               25.0, 1.000,               35.0, 0.000]</t>
+  </si>
+  <si>
+    <t>[0.000, 0.500,               0.100, 0.500,               0.200, 0.400,               0.350, 0.220,               0.400, 0.170,               0.500, 0.130,               0.700, 0.070,               0.900, 0.030,               1.200, 0.000,               2.000, 0.000]</t>
+  </si>
+  <si>
+    <t>[0.000, 0.650,               0.100, 0.650,               0.250, 0.700,               0.500, 0.500,               0.646, 0.300,               0.950, 0.000,               2.000, 0.000]</t>
+  </si>
+  <si>
+    <t>[0.00, 0.000,               1.50, 0.000,               1.51, 0.020,               2.00, 0.020]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[0.00, 0.000,               1.50, 0.000,               1.51, 0.020,               2.00, 0.020]</t>
+  </si>
+  <si>
+    <t>AMAXTB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMAXTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMAXTB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMPFTB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMPFTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRTB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRTB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRTB11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRTB13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLTB1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLTB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLTB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLTB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDRRTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDRRTB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDRSTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDRSTB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实测值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGRLAI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SPAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TBASE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CVS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RRI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDMCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>LAI</t>
-  </si>
-  <si>
-    <t>TAGP</t>
-  </si>
-  <si>
-    <t>TWSO</t>
-  </si>
-  <si>
-    <t>系统中可用的磷含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>果实重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地上生物量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶面积指数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>播种时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CROPTIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整个土壤剖面中的初始水量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAVAILI</t>
-  </si>
-  <si>
-    <t>PAVAILI</t>
-  </si>
-  <si>
-    <t>KAVAILI</t>
-  </si>
-  <si>
-    <t>系统中可用的氮含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统中可用的钾含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始根系深度区域的最大湿度含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RPUPTAKE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>植物实际吸收的磷含量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSUM1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TSUM2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TDWI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRTB0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRTB0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NAVAILI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PAVAILI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KAVAILI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLATB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLATB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KDIFTB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>KDIFTB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFFTB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFFTB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>默认值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.00, 0.00212,           0.50, 0.00212,        2.00, 0.00212]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.00, 0.600,               2.00, 0.600]</t>
-  </si>
-  <si>
-    <t>[ 0.0, 0.450,               40.0, 0.450]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.00, 35.83,               1.00, 35.83,               1.30, 35.83,               2.00, 4.48]</t>
-  </si>
-  <si>
-    <t>[ 0.0, 0.010,               10.0, 0.600,               15.0, 1.000,               25.0, 1.000,               35.0, 0.000]</t>
-  </si>
-  <si>
-    <t>[0.000, 0.500,               0.100, 0.500,               0.200, 0.400,               0.350, 0.220,               0.400, 0.170,               0.500, 0.130,               0.700, 0.070,               0.900, 0.030,               1.200, 0.000,               2.000, 0.000]</t>
-  </si>
-  <si>
-    <t>[0.000, 0.650,               0.100, 0.650,               0.250, 0.700,               0.500, 0.500,               0.646, 0.300,               0.950, 0.000,               2.000, 0.000]</t>
-  </si>
-  <si>
-    <t>[0.00, 0.000,               1.50, 0.000,               1.51, 0.020,               2.00, 0.020]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[0.00, 0.000,               1.50, 0.000,               1.51, 0.020,               2.00, 0.020]</t>
-  </si>
-  <si>
-    <t>AMAXTB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMAXTB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AMAXTB5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMPFTB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMPFTB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRTB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRTB9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRTB11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRTB13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLTB1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLTB5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLTB7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLTB9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDRRTB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDRRTB7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDRSTB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDRSTB7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实测值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RGRLAI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SPAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TBASE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CVS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RML</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RMS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RRI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDMCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLATB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时的比叶面积</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.79</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时的比叶面积</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLATB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.65时可见光散射消光系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时可见光散射消光系数</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KDIFTB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时单叶最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>CO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同化速率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为2.0时单叶最大CO2同化速率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMPFTB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大光合速率在10℃时校正因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大光合速率在25C时校正因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRTB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0时根干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.43时根干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.8时根干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.5时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.6时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.7时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.8时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDRRTB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为1.51时根的死亡率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDRSTB5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -708,7 +869,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -734,6 +895,20 @@
       <sz val="11"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF182026"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF182026"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -778,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -799,7 +974,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1083,7 +1264,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1103,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1121,10 +1304,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>960</v>
@@ -1141,10 +1324,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D3">
         <v>850</v>
@@ -1161,10 +1344,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="D4">
         <v>200</v>
@@ -1181,10 +1364,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D5">
         <v>8.1700000000000002E-3</v>
@@ -1201,13 +1384,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>157</v>
+        <v>63</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="E6" s="1">
         <v>1.908E-3</v>
@@ -1221,10 +1404,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="1">
@@ -1239,10 +1422,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1">
@@ -1257,10 +1440,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="1">
@@ -1275,13 +1458,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>158</v>
+        <v>67</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="E10" s="1">
         <v>0.54</v>
@@ -1295,17 +1478,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>89</v>
+        <v>68</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1313,19 +1496,19 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>159</v>
+        <v>69</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1333,17 +1516,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
@@ -1351,19 +1534,19 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>160</v>
+        <v>71</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>136</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -1371,17 +1554,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1389,17 +1572,17 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
@@ -1407,19 +1590,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>161</v>
+        <v>102</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1427,17 +1610,17 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="1" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -1445,19 +1628,19 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="D19" s="4">
         <v>0.68500000000000005</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -1465,19 +1648,19 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="D20" s="4">
         <v>0.70899999999999996</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1485,19 +1668,19 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="D21" s="4">
         <v>0.69399999999999995</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1505,19 +1688,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="D22" s="4">
         <v>0.66200000000000003</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1525,10 +1708,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="D23" s="4">
         <v>2</v>
@@ -1537,7 +1720,7 @@
         <v>1.8</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1545,19 +1728,19 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="D24" s="4">
         <v>0.03</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1565,19 +1748,19 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="D25" s="4">
         <v>0.01</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1585,19 +1768,19 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
+        <v>82</v>
       </c>
       <c r="D26" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1605,19 +1788,19 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="D27" s="4">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
@@ -1625,19 +1808,19 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>162</v>
+        <v>84</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>138</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1645,17 +1828,17 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1663,17 +1846,17 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="1" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1681,17 +1864,17 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="1" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="57" x14ac:dyDescent="0.2">
@@ -1699,19 +1882,19 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>163</v>
+        <v>88</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1719,17 +1902,17 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1737,17 +1920,17 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="1" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1755,17 +1938,17 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="1">
         <v>0.27</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -1773,19 +1956,19 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>164</v>
+        <v>92</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>140</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -1793,17 +1976,17 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
@@ -1811,19 +1994,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>165</v>
+        <v>94</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1831,17 +2014,17 @@
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="1" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1849,19 +2032,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="D40" s="4">
         <v>10</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1869,19 +2052,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D41" s="4">
         <v>1.2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
@@ -1889,19 +2072,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="D42" s="4">
         <v>125</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -1912,7 +2095,7 @@
         <v>19</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="D43" s="2">
         <v>30</v>
@@ -1932,7 +2115,7 @@
         <v>20</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D44" s="2">
         <v>0.3</v>
@@ -1949,13 +2132,13 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E45" s="1">
         <v>50</v>
@@ -1969,13 +2152,13 @@
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E46" s="1">
         <v>0</v>
@@ -1989,13 +2172,13 @@
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E47" s="1">
         <v>20</v>
@@ -2009,10 +2192,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="D48" s="4">
         <v>2019285</v>
@@ -2033,10 +2216,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E69632-0D33-45C3-B0EF-EF4581867B0B}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2044,11 +2227,12 @@
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.25" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2056,67 +2240,79 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="1">
+        <v>101</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1630</v>
+      </c>
+      <c r="E2" s="1">
         <v>1500</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>1800</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+      <c r="D3" s="4">
+        <v>530</v>
+      </c>
+      <c r="E3" s="1">
         <v>450</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" s="1">
+        <v>61</v>
+      </c>
+      <c r="D4" s="3">
+        <v>100</v>
+      </c>
+      <c r="E4" s="1">
         <v>90</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -2124,32 +2320,65 @@
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <f>D5-D5*0.1</f>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <f>D5+D5*0.1</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" ref="E6:E41" si="0">D6-D6*0.1</f>
+        <v>9.8999999999999999E-4</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" ref="F6:F41" si="1">D6+D6*0.1</f>
+        <v>1.2100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5299999999999999E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8699999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -2157,10 +2386,21 @@
         <v>5</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>65</v>
+      </c>
+      <c r="D8" s="3">
+        <v>50</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -2168,109 +2408,215 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D9" s="3">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1">
+        <v>6</v>
+      </c>
+      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>23</v>
+        <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
+        <v>130</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.54</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.48600000000000004</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.59400000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>131</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>70</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.36</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.39599999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+      <c r="D14" s="3">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="D15" s="3">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="D16" s="4">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>30</v>
+        <v>146</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -2278,10 +2624,21 @@
         <v>7</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>0.754</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82940000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -2289,10 +2646,21 @@
         <v>8</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75240000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -2300,10 +2668,21 @@
         <v>9</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>0.754</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82940000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -2311,10 +2690,21 @@
         <v>10</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="D22">
+        <v>0.754</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="0"/>
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.82940000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -2322,10 +2712,21 @@
         <v>11</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -2333,10 +2734,21 @@
         <v>12</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -2344,10 +2756,21 @@
         <v>13</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -2355,10 +2778,21 @@
         <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="0"/>
+        <v>1.35E-2</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -2366,238 +2800,446 @@
         <v>15</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+        <v>190</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="1"/>
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.45</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+        <v>192</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="0"/>
+        <v>0.315</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="1"/>
+        <v>0.38499999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+        <v>194</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.62</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="0"/>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="1"/>
+        <v>0.68199999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>34</v>
+        <v>152</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+        <v>195</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5129999999999999</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="1"/>
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>35</v>
+        <v>153</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+        <v>196</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5129999999999999</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="1"/>
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.38</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="0"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41800000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>38</v>
+        <v>156</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+        <v>93</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+        <v>95</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+        <v>96</v>
+      </c>
+      <c r="D39" s="4">
+        <v>10</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="6">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+        <v>97</v>
+      </c>
+      <c r="D40" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3199999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="6">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+        <v>98</v>
+      </c>
+      <c r="D41" s="4">
+        <v>80</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>18</v>
+      <c r="B42" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+      <c r="D42" s="2">
+        <v>30</v>
+      </c>
+      <c r="E42" s="1">
+        <v>20</v>
+      </c>
+      <c r="F42" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>117</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A44" s="6">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44" s="1">
+        <v>50</v>
+      </c>
+      <c r="F44" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A45" s="6">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>105</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
+        <v>116</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="1">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A48" s="6">
-        <v>46</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>109</v>
+      </c>
+      <c r="D47" s="1">
+        <v>192</v>
+      </c>
+      <c r="E47" s="1">
+        <v>182</v>
+      </c>
+      <c r="F47" s="1">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2612,7 +3254,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2626,39 +3268,39 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>124</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/simlab_sensitivity_analysis/sensitive_parameters.xlsx
+++ b/simlab_sensitivity_analysis/sensitive_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\simlab_sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E1205E5-4326-4642-B05C-0BACEE84F38B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7779953F-8132-4928-81BC-F6E16C4F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小麦" sheetId="1" r:id="rId1"/>
@@ -953,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -982,6 +982,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1264,9 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2218,8 +2217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E69632-0D33-45C3-B0EF-EF4581867B0B}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2227,9 +2226,9 @@
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="18.25" style="10" customWidth="1"/>
+    <col min="6" max="6" width="14" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2242,13 +2241,13 @@
       <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2262,13 +2261,13 @@
       <c r="C2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="10">
         <v>1630</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="10">
         <v>1500</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="10">
         <v>1800</v>
       </c>
     </row>
@@ -2282,13 +2281,13 @@
       <c r="C3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="10">
         <v>530</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="10">
         <v>450</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="10">
         <v>600</v>
       </c>
     </row>
@@ -2302,13 +2301,13 @@
       <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>100</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="10">
         <v>90</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="10">
         <v>110</v>
       </c>
     </row>
@@ -2322,14 +2321,14 @@
       <c r="C5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="10">
         <f>D5-D5*0.1</f>
         <v>7.1999999999999998E-3</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="10">
         <f>D5+D5*0.1</f>
         <v>8.8000000000000005E-3</v>
       </c>
@@ -2344,14 +2343,14 @@
       <c r="C6" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1.1000000000000001E-3</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="10">
         <f t="shared" ref="E6:E41" si="0">D6-D6*0.1</f>
         <v>9.8999999999999999E-4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="10">
         <f t="shared" ref="F6:F41" si="1">D6+D6*0.1</f>
         <v>1.2100000000000001E-3</v>
       </c>
@@ -2366,14 +2365,14 @@
       <c r="C7" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>1.6999999999999999E-3</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <f t="shared" si="0"/>
         <v>1.5299999999999999E-3</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="10">
         <f t="shared" si="1"/>
         <v>1.8699999999999999E-3</v>
       </c>
@@ -2388,14 +2387,14 @@
       <c r="C8" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>50</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="10">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
@@ -2410,13 +2409,13 @@
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="10">
         <v>6</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="10">
         <v>10</v>
       </c>
     </row>
@@ -2430,14 +2429,14 @@
       <c r="C10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="10">
         <v>0.4</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="10">
         <f t="shared" si="1"/>
         <v>0.44000000000000006</v>
       </c>
@@ -2452,14 +2451,14 @@
       <c r="C11" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>0.6</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <f t="shared" si="0"/>
         <v>0.54</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="10">
         <f t="shared" si="1"/>
         <v>0.65999999999999992</v>
       </c>
@@ -2474,14 +2473,14 @@
       <c r="C12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>0.54</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="10">
         <f t="shared" si="0"/>
         <v>0.48600000000000004</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="10">
         <f t="shared" si="1"/>
         <v>0.59400000000000008</v>
       </c>
@@ -2496,14 +2495,14 @@
       <c r="C13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>0.36</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="10">
         <f t="shared" si="0"/>
         <v>0.32400000000000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="10">
         <f t="shared" si="1"/>
         <v>0.39599999999999996</v>
       </c>
@@ -2518,14 +2517,14 @@
       <c r="C14" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>40</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="10">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -2540,14 +2539,14 @@
       <c r="C15" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>40</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="10">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -2562,14 +2561,14 @@
       <c r="C16" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="10">
         <v>40</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="10">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
@@ -2584,13 +2583,13 @@
       <c r="C17" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="10">
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" s="10">
         <v>0</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="10">
         <v>0.1</v>
       </c>
     </row>
@@ -2604,14 +2603,14 @@
       <c r="C18" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="10">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" s="10">
         <f t="shared" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="10">
         <f t="shared" si="1"/>
         <v>1.1000000000000001</v>
       </c>
@@ -2626,14 +2625,14 @@
       <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="10">
         <v>0.754</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="10">
         <f t="shared" si="0"/>
         <v>0.67859999999999998</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="10">
         <f t="shared" si="1"/>
         <v>0.82940000000000003</v>
       </c>
@@ -2648,14 +2647,14 @@
       <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="10">
         <v>0.68400000000000005</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" s="10">
         <f t="shared" si="0"/>
         <v>0.61560000000000004</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="10">
         <f t="shared" si="1"/>
         <v>0.75240000000000007</v>
       </c>
@@ -2670,14 +2669,14 @@
       <c r="C21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="10">
         <v>0.754</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" s="10">
         <f t="shared" si="0"/>
         <v>0.67859999999999998</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="10">
         <f t="shared" si="1"/>
         <v>0.82940000000000003</v>
       </c>
@@ -2692,14 +2691,14 @@
       <c r="C22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="10">
         <v>0.754</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" s="10">
         <f t="shared" si="0"/>
         <v>0.67859999999999998</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="10">
         <f t="shared" si="1"/>
         <v>0.82940000000000003</v>
       </c>
@@ -2717,11 +2716,11 @@
       <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" s="10">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="10">
         <f t="shared" si="1"/>
         <v>2.2000000000000002</v>
       </c>
@@ -2736,14 +2735,14 @@
       <c r="C24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="10">
         <v>0.02</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" s="10">
         <f t="shared" si="0"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="10">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -2758,14 +2757,14 @@
       <c r="C25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" s="10">
         <f t="shared" si="0"/>
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="10">
         <f t="shared" si="1"/>
         <v>3.3E-3</v>
       </c>
@@ -2783,11 +2782,11 @@
       <c r="D26" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" s="10">
         <f t="shared" si="0"/>
         <v>1.35E-2</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="10">
         <f t="shared" si="1"/>
         <v>1.6500000000000001E-2</v>
       </c>
@@ -2805,11 +2804,11 @@
       <c r="D27" s="7">
         <v>0.02</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" s="10">
         <f t="shared" si="0"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="10">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -2824,14 +2823,14 @@
       <c r="C28" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="10">
         <v>0.45</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" s="10">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="F28" s="1">
+      <c r="F28" s="10">
         <f t="shared" si="1"/>
         <v>0.495</v>
       </c>
@@ -2846,14 +2845,14 @@
       <c r="C29" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="10">
         <v>0.45</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" s="10">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
-      <c r="F29" s="1">
+      <c r="F29" s="10">
         <f t="shared" si="1"/>
         <v>0.495</v>
       </c>
@@ -2868,14 +2867,14 @@
       <c r="C30" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="10">
         <v>0.35</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" s="10">
         <f t="shared" si="0"/>
         <v>0.315</v>
       </c>
-      <c r="F30" s="1">
+      <c r="F30" s="10">
         <f t="shared" si="1"/>
         <v>0.38499999999999995</v>
       </c>
@@ -2890,14 +2889,14 @@
       <c r="C31" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="10">
         <v>0.62</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" s="10">
         <f t="shared" si="0"/>
         <v>0.55800000000000005</v>
       </c>
-      <c r="F31" s="1">
+      <c r="F31" s="10">
         <f t="shared" si="1"/>
         <v>0.68199999999999994</v>
       </c>
@@ -2912,14 +2911,14 @@
       <c r="C32" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="10">
         <f t="shared" si="0"/>
         <v>0.5129999999999999</v>
       </c>
-      <c r="F32" s="1">
+      <c r="F32" s="10">
         <f t="shared" si="1"/>
         <v>0.627</v>
       </c>
@@ -2934,14 +2933,14 @@
       <c r="C33" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="10">
         <v>0.56999999999999995</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="10">
         <f t="shared" si="0"/>
         <v>0.5129999999999999</v>
       </c>
-      <c r="F33" s="1">
+      <c r="F33" s="10">
         <f t="shared" si="1"/>
         <v>0.627</v>
       </c>
@@ -2956,14 +2955,14 @@
       <c r="C34" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="10">
         <v>0.38</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" s="10">
         <f t="shared" si="0"/>
         <v>0.34199999999999997</v>
       </c>
-      <c r="F34" s="1">
+      <c r="F34" s="10">
         <f t="shared" si="1"/>
         <v>0.41800000000000004</v>
       </c>
@@ -2978,14 +2977,14 @@
       <c r="C35" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="10">
         <v>0.02</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" s="10">
         <f t="shared" si="0"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F35" s="1">
+      <c r="F35" s="10">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3000,14 +2999,14 @@
       <c r="C36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="10">
         <v>0.02</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" s="10">
         <f t="shared" si="0"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F36" s="1">
+      <c r="F36" s="10">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3022,14 +3021,14 @@
       <c r="C37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="10">
         <v>0.02</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" s="10">
         <f t="shared" si="0"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F37" s="1">
+      <c r="F37" s="10">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3044,14 +3043,14 @@
       <c r="C38" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="10">
         <v>0.02</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" s="10">
         <f t="shared" si="0"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F38" s="1">
+      <c r="F38" s="10">
         <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
@@ -3066,14 +3065,14 @@
       <c r="C39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="10">
         <v>10</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="F39" s="1">
+      <c r="F39" s="10">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -3088,14 +3087,14 @@
       <c r="C40" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="10">
         <v>1.2</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" s="10">
         <f t="shared" si="0"/>
         <v>1.08</v>
       </c>
-      <c r="F40" s="1">
+      <c r="F40" s="10">
         <f t="shared" si="1"/>
         <v>1.3199999999999998</v>
       </c>
@@ -3110,14 +3109,14 @@
       <c r="C41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="10">
         <v>80</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" s="10">
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="F41" s="1">
+      <c r="F41" s="10">
         <f t="shared" si="1"/>
         <v>88</v>
       </c>
@@ -3135,10 +3134,10 @@
       <c r="D42" s="2">
         <v>30</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" s="10">
         <v>20</v>
       </c>
-      <c r="F42" s="1">
+      <c r="F42" s="10">
         <v>50</v>
       </c>
     </row>
@@ -3155,10 +3154,10 @@
       <c r="D43" s="2">
         <v>0.3</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" s="10">
         <v>0.2</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F43" s="10">
         <v>0.6</v>
       </c>
     </row>
@@ -3172,13 +3171,13 @@
       <c r="C44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" s="10">
         <v>50</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="10">
         <v>200</v>
       </c>
     </row>
@@ -3192,13 +3191,13 @@
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" s="10">
         <v>0</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="10">
         <v>30</v>
       </c>
     </row>
@@ -3212,13 +3211,13 @@
       <c r="C46" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" s="10">
         <v>20</v>
       </c>
-      <c r="F46" s="1">
+      <c r="F46" s="10">
         <v>150</v>
       </c>
     </row>
@@ -3232,13 +3231,13 @@
       <c r="C47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47" s="10">
         <v>192</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" s="10">
         <v>182</v>
       </c>
-      <c r="F47" s="1">
+      <c r="F47" s="10">
         <v>210</v>
       </c>
     </row>

--- a/simlab_sensitivity_analysis/sensitive_parameters.xlsx
+++ b/simlab_sensitivity_analysis/sensitive_parameters.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\simlab_sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7779953F-8132-4928-81BC-F6E16C4F7C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55038085-297B-481F-AE9F-F79C73400D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小麦" sheetId="1" r:id="rId1"/>
-    <sheet name="水稻" sheetId="3" r:id="rId2"/>
-    <sheet name="敏感性分析对象" sheetId="4" r:id="rId3"/>
+    <sheet name="水稻1" sheetId="5" r:id="rId2"/>
+    <sheet name="水稻2" sheetId="3" r:id="rId3"/>
+    <sheet name="敏感性分析对象" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="213">
   <si>
     <t>参数名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,74 +632,6 @@
   </si>
   <si>
     <t>LAI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SLATB5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF182026"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生育期为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF182026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF182026"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时的比叶面积</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF182026"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>生育期为</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF182026"/>
-        <rFont val="Segoe UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>0.79</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF182026"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>时的比叶面积</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -746,6 +679,74 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>生育期为2.0时单叶最大CO2同化速率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMPFTB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大光合速率在10℃时校正因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大光合速率在25C时校正因子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRTB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0时根干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.43时根干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.8时根干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLTB3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.5时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.6时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.7时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.8时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDRRTB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为1.51时根的死亡率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RDRSTB5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -763,7 +764,79 @@
         <rFont val="Segoe UI"/>
         <family val="2"/>
       </rPr>
-      <t>1.9</t>
+      <t>0.18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时的比叶面积</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.55</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时的比叶面积</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMAXTB9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AMAXTB11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>2.0</t>
     </r>
     <r>
       <rPr>
@@ -797,71 +870,197 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>生育期为2.0时单叶最大CO2同化速率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TMPFTB5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大光合速率在10℃时校正因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最大光合速率在25C时校正因子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRTB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FRTB5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生育期为0时根干物质分配系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生育期为0.43时根干物质分配系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生育期为0.8时根干物质分配系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLTB3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生育期为0.5时叶干物质分配系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生育期为0.6时叶干物质分配系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生育期为0.7时叶干物质分配系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生育期为0.8时叶干物质分配系数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDRRTB5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生育期为1.51时根的死亡率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RDRSTB5</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.35</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时单叶最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>CO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同化速率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.4时根干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FRTB7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.5时根干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.53时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为0.94时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为1.0时叶干物质分配系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.61</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时的比叶面积</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1.0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时的比叶面积</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生育期为</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>时单叶最大</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>CO2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF182026"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>同化速率</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生育期为1.9时单叶最大CO2同化速率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -912,7 +1111,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -922,6 +1121,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,7 +1158,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -982,7 +1187,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1265,14 +1478,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="1" customWidth="1"/>
   </cols>
@@ -2150,7 +2365,7 @@
       <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="10" t="s">
         <v>124</v>
       </c>
       <c r="C46" s="4" t="s">
@@ -2160,17 +2375,17 @@
         <v>159</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F46" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A47" s="6">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="10" t="s">
         <v>125</v>
       </c>
       <c r="C47" s="4" t="s">
@@ -2180,7 +2395,7 @@
         <v>159</v>
       </c>
       <c r="E47" s="1">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F47" s="1">
         <v>150</v>
@@ -2214,21 +2429,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E69632-0D33-45C3-B0EF-EF4581867B0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39782A6B-D4D3-4376-823F-C7B66A01853C}">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C39" sqref="C39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="18.25" style="10" customWidth="1"/>
-    <col min="6" max="6" width="14" style="10" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="35" customWidth="1"/>
+    <col min="4" max="4" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2241,13 +2453,13 @@
       <c r="C1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2255,126 +2467,132 @@
       <c r="A2" s="6">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="11" t="s">
         <v>120</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="10">
-        <v>1630</v>
-      </c>
-      <c r="E2" s="10">
-        <v>1500</v>
-      </c>
-      <c r="F2" s="10">
-        <v>1800</v>
+      <c r="D2">
+        <v>1700</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E3" si="0">D2-D2*0.1</f>
+        <v>1530</v>
+      </c>
+      <c r="F2">
+        <f>D2+D2*0.1</f>
+        <v>1870</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>121</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D3" s="10">
-        <v>530</v>
-      </c>
-      <c r="E3" s="10">
-        <v>450</v>
-      </c>
-      <c r="F3" s="10">
-        <v>600</v>
+      <c r="D3">
+        <v>700</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>630</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3" si="1">D3+D3*0.1</f>
+        <v>770</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="2">
-        <v>100</v>
-      </c>
-      <c r="E4" s="10">
-        <v>90</v>
-      </c>
-      <c r="F4" s="10">
-        <v>110</v>
+      <c r="D4">
+        <v>40</v>
+      </c>
+      <c r="E4">
+        <f>D4-D4*0.1</f>
+        <v>36</v>
+      </c>
+      <c r="F4">
+        <f>D4+D4*0.1</f>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="D5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E5">
         <f>D5-D5*0.1</f>
-        <v>7.1999999999999998E-3</v>
-      </c>
-      <c r="F5" s="10">
+        <v>6.3E-3</v>
+      </c>
+      <c r="F5">
         <f>D5+D5*0.1</f>
-        <v>8.8000000000000005E-3</v>
+        <v>7.7000000000000002E-3</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>176</v>
+      <c r="B6" s="12" t="s">
+        <v>127</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.1000000000000001E-3</v>
-      </c>
-      <c r="E6" s="10">
-        <f t="shared" ref="E6:E41" si="0">D6-D6*0.1</f>
-        <v>9.8999999999999999E-4</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" ref="F6:F41" si="1">D6+D6*0.1</f>
-        <v>1.2100000000000001E-3</v>
+        <v>197</v>
+      </c>
+      <c r="D6">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E41" si="2">D6-D6*0.1</f>
+        <v>6.7499999999999999E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F41" si="3">D6+D6*0.1</f>
+        <v>8.2500000000000004E-3</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>179</v>
+      <c r="B7" s="12" t="s">
+        <v>176</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.6999999999999999E-3</v>
-      </c>
-      <c r="E7" s="10">
-        <f t="shared" si="0"/>
-        <v>1.5299999999999999E-3</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" si="1"/>
-        <v>1.8699999999999999E-3</v>
+        <v>198</v>
+      </c>
+      <c r="D7">
+        <v>2.3E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>2.0699999999999998E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="3"/>
+        <v>2.5300000000000001E-3</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -2390,12 +2608,12 @@
       <c r="D8" s="2">
         <v>50</v>
       </c>
-      <c r="E8" s="10">
-        <f t="shared" si="0"/>
+      <c r="E8">
+        <f t="shared" si="2"/>
         <v>45</v>
       </c>
-      <c r="F8" s="10">
-        <f t="shared" si="1"/>
+      <c r="F8">
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
     </row>
@@ -2412,10 +2630,10 @@
       <c r="D9" s="2">
         <v>8</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9">
         <v>10</v>
       </c>
     </row>
@@ -2427,17 +2645,17 @@
         <v>129</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="D10" s="10">
+        <v>177</v>
+      </c>
+      <c r="D10">
         <v>0.4</v>
       </c>
-      <c r="E10" s="10">
-        <f t="shared" si="0"/>
+      <c r="E10">
+        <f t="shared" si="2"/>
         <v>0.36</v>
       </c>
-      <c r="F10" s="10">
-        <f t="shared" si="1"/>
+      <c r="F10">
+        <f t="shared" si="3"/>
         <v>0.44000000000000006</v>
       </c>
     </row>
@@ -2446,20 +2664,20 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D11" s="2">
         <v>0.6</v>
       </c>
-      <c r="E11" s="10">
-        <f t="shared" si="0"/>
+      <c r="E11">
+        <f t="shared" si="2"/>
         <v>0.54</v>
       </c>
-      <c r="F11" s="10">
-        <f t="shared" si="1"/>
+      <c r="F11">
+        <f t="shared" si="3"/>
         <v>0.65999999999999992</v>
       </c>
     </row>
@@ -2476,12 +2694,12 @@
       <c r="D12" s="2">
         <v>0.54</v>
       </c>
-      <c r="E12" s="10">
-        <f t="shared" si="0"/>
+      <c r="E12">
+        <f t="shared" si="2"/>
         <v>0.48600000000000004</v>
       </c>
-      <c r="F12" s="10">
-        <f t="shared" si="1"/>
+      <c r="F12">
+        <f t="shared" si="3"/>
         <v>0.59400000000000008</v>
       </c>
     </row>
@@ -2498,12 +2716,12 @@
       <c r="D13" s="2">
         <v>0.36</v>
       </c>
-      <c r="E13" s="10">
-        <f t="shared" si="0"/>
+      <c r="E13">
+        <f t="shared" si="2"/>
         <v>0.32400000000000001</v>
       </c>
-      <c r="F13" s="10">
-        <f t="shared" si="1"/>
+      <c r="F13">
+        <f t="shared" si="3"/>
         <v>0.39599999999999996</v>
       </c>
     </row>
@@ -2511,21 +2729,21 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>71</v>
+      <c r="B14" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>202</v>
       </c>
       <c r="D14" s="2">
         <v>40</v>
       </c>
-      <c r="E14" s="10">
-        <f t="shared" si="0"/>
+      <c r="E14">
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F14" s="10">
-        <f t="shared" si="1"/>
+      <c r="F14">
+        <f t="shared" si="3"/>
         <v>44</v>
       </c>
     </row>
@@ -2533,44 +2751,44 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>143</v>
+      <c r="B15" s="12" t="s">
+        <v>199</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D15" s="2">
-        <v>40</v>
-      </c>
-      <c r="E15" s="10">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F15" s="10">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>144</v>
+      <c r="B16" s="11" t="s">
+        <v>200</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="10">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="F16" s="10">
-        <f t="shared" si="1"/>
-        <v>44</v>
+        <v>180</v>
+      </c>
+      <c r="D16">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="3"/>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -2581,15 +2799,15 @@
         <v>146</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="D17" s="10">
+        <v>182</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17">
         <v>0</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17">
         <v>0.1</v>
       </c>
     </row>
@@ -2598,20 +2816,20 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D18" s="10">
+        <v>183</v>
+      </c>
+      <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" s="10">
-        <f t="shared" si="0"/>
+      <c r="E18">
+        <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="F18" s="10">
-        <f t="shared" si="1"/>
+      <c r="F18">
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -2625,15 +2843,15 @@
       <c r="C19" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19">
         <v>0.754</v>
       </c>
-      <c r="E19" s="10">
-        <f t="shared" si="0"/>
+      <c r="E19">
+        <f t="shared" si="2"/>
         <v>0.67859999999999998</v>
       </c>
-      <c r="F19" s="10">
-        <f t="shared" si="1"/>
+      <c r="F19">
+        <f t="shared" si="3"/>
         <v>0.82940000000000003</v>
       </c>
     </row>
@@ -2647,15 +2865,15 @@
       <c r="C20" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20">
         <v>0.68400000000000005</v>
       </c>
-      <c r="E20" s="10">
-        <f t="shared" si="0"/>
+      <c r="E20">
+        <f t="shared" si="2"/>
         <v>0.61560000000000004</v>
       </c>
-      <c r="F20" s="10">
-        <f t="shared" si="1"/>
+      <c r="F20">
+        <f t="shared" si="3"/>
         <v>0.75240000000000007</v>
       </c>
     </row>
@@ -2669,15 +2887,15 @@
       <c r="C21" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21">
         <v>0.754</v>
       </c>
-      <c r="E21" s="10">
-        <f t="shared" si="0"/>
+      <c r="E21">
+        <f t="shared" si="2"/>
         <v>0.67859999999999998</v>
       </c>
-      <c r="F21" s="10">
-        <f t="shared" si="1"/>
+      <c r="F21">
+        <f t="shared" si="3"/>
         <v>0.82940000000000003</v>
       </c>
     </row>
@@ -2691,15 +2909,15 @@
       <c r="C22" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22">
         <v>0.754</v>
       </c>
-      <c r="E22" s="10">
-        <f t="shared" si="0"/>
+      <c r="E22">
+        <f t="shared" si="2"/>
         <v>0.67859999999999998</v>
       </c>
-      <c r="F22" s="10">
-        <f t="shared" si="1"/>
+      <c r="F22">
+        <f t="shared" si="3"/>
         <v>0.82940000000000003</v>
       </c>
     </row>
@@ -2716,12 +2934,12 @@
       <c r="D23" s="7">
         <v>2</v>
       </c>
-      <c r="E23" s="10">
-        <f t="shared" si="0"/>
+      <c r="E23">
+        <f t="shared" si="2"/>
         <v>1.8</v>
       </c>
-      <c r="F23" s="10">
-        <f t="shared" si="1"/>
+      <c r="F23">
+        <f t="shared" si="3"/>
         <v>2.2000000000000002</v>
       </c>
     </row>
@@ -2735,15 +2953,15 @@
       <c r="C24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24">
         <v>0.02</v>
       </c>
-      <c r="E24" s="10">
-        <f t="shared" si="0"/>
+      <c r="E24">
+        <f t="shared" si="2"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F24" s="10">
-        <f t="shared" si="1"/>
+      <c r="F24">
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -2757,15 +2975,15 @@
       <c r="C25" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E25" s="10">
-        <f t="shared" si="0"/>
+      <c r="E25">
+        <f t="shared" si="2"/>
         <v>2.7000000000000001E-3</v>
       </c>
-      <c r="F25" s="10">
-        <f t="shared" si="1"/>
+      <c r="F25">
+        <f t="shared" si="3"/>
         <v>3.3E-3</v>
       </c>
     </row>
@@ -2782,12 +3000,12 @@
       <c r="D26" s="7">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="E26" s="10">
-        <f t="shared" si="0"/>
+      <c r="E26">
+        <f t="shared" si="2"/>
         <v>1.35E-2</v>
       </c>
-      <c r="F26" s="10">
-        <f t="shared" si="1"/>
+      <c r="F26">
+        <f t="shared" si="3"/>
         <v>1.6500000000000001E-2</v>
       </c>
     </row>
@@ -2804,12 +3022,12 @@
       <c r="D27" s="7">
         <v>0.02</v>
       </c>
-      <c r="E27" s="10">
-        <f t="shared" si="0"/>
+      <c r="E27">
+        <f t="shared" si="2"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F27" s="10">
-        <f t="shared" si="1"/>
+      <c r="F27">
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -2817,154 +3035,154 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="11" t="s">
         <v>147</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E28" s="10">
-        <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="F28" s="10">
-        <f t="shared" si="1"/>
-        <v>0.495</v>
+        <v>186</v>
+      </c>
+      <c r="D28">
+        <v>0.4</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0.36</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="3"/>
+        <v>0.44000000000000006</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>188</v>
+      <c r="B29" s="11" t="s">
+        <v>185</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0.45</v>
-      </c>
-      <c r="E29" s="10">
-        <f t="shared" si="0"/>
-        <v>0.40500000000000003</v>
-      </c>
-      <c r="F29" s="10">
-        <f t="shared" si="1"/>
-        <v>0.495</v>
+        <v>203</v>
+      </c>
+      <c r="D29">
+        <v>0.2</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="3"/>
+        <v>0.22000000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>189</v>
+      <c r="B30" s="11" t="s">
+        <v>204</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="E30" s="10">
-        <f t="shared" si="0"/>
-        <v>0.315</v>
-      </c>
-      <c r="F30" s="10">
-        <f t="shared" si="1"/>
-        <v>0.38499999999999995</v>
+        <v>205</v>
+      </c>
+      <c r="D30">
+        <v>0.5</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="3"/>
+        <v>0.55000000000000004</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>193</v>
+      <c r="B31" s="11" t="s">
+        <v>189</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0.62</v>
-      </c>
-      <c r="E31" s="10">
-        <f t="shared" si="0"/>
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="F31" s="10">
-        <f t="shared" si="1"/>
-        <v>0.68199999999999994</v>
+        <v>206</v>
+      </c>
+      <c r="D31">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0.5129999999999999</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="3"/>
+        <v>0.627</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="11" t="s">
         <v>152</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E32" s="10">
-        <f t="shared" si="0"/>
-        <v>0.5129999999999999</v>
-      </c>
-      <c r="F32" s="10">
-        <f t="shared" si="1"/>
-        <v>0.627</v>
+        <v>193</v>
+      </c>
+      <c r="D32">
+        <v>0.35</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>0.315</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="3"/>
+        <v>0.38499999999999995</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="11" t="s">
         <v>153</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="E33" s="10">
-        <f t="shared" si="0"/>
-        <v>0.5129999999999999</v>
-      </c>
-      <c r="F33" s="10">
-        <f t="shared" si="1"/>
-        <v>0.627</v>
+        <v>207</v>
+      </c>
+      <c r="D33">
+        <v>0.2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0.18</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="3"/>
+        <v>0.22000000000000003</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="11" t="s">
         <v>154</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0.38</v>
-      </c>
-      <c r="E34" s="10">
-        <f t="shared" si="0"/>
-        <v>0.34199999999999997</v>
-      </c>
-      <c r="F34" s="10">
-        <f t="shared" si="1"/>
-        <v>0.41800000000000004</v>
+        <v>208</v>
+      </c>
+      <c r="D34">
+        <v>0.15</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="3"/>
+        <v>0.16499999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -2972,20 +3190,20 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="D35" s="10">
+        <v>195</v>
+      </c>
+      <c r="D35">
         <v>0.02</v>
       </c>
-      <c r="E35" s="10">
-        <f t="shared" si="0"/>
+      <c r="E35">
+        <f t="shared" si="2"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F35" s="10">
-        <f t="shared" si="1"/>
+      <c r="F35">
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -2999,15 +3217,15 @@
       <c r="C36" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36">
         <v>0.02</v>
       </c>
-      <c r="E36" s="10">
-        <f t="shared" si="0"/>
+      <c r="E36">
+        <f t="shared" si="2"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F36" s="10">
-        <f t="shared" si="1"/>
+      <c r="F36">
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -3016,20 +3234,20 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37">
         <v>0.02</v>
       </c>
-      <c r="E37" s="10">
-        <f t="shared" si="0"/>
+      <c r="E37">
+        <f t="shared" si="2"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F37" s="10">
-        <f t="shared" si="1"/>
+      <c r="F37">
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -3043,15 +3261,15 @@
       <c r="C38" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38">
         <v>0.02</v>
       </c>
-      <c r="E38" s="10">
-        <f t="shared" si="0"/>
+      <c r="E38">
+        <f t="shared" si="2"/>
         <v>1.8000000000000002E-2</v>
       </c>
-      <c r="F38" s="10">
-        <f t="shared" si="1"/>
+      <c r="F38">
+        <f t="shared" si="3"/>
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
@@ -3065,15 +3283,15 @@
       <c r="C39" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39">
         <v>10</v>
       </c>
-      <c r="E39" s="10">
-        <f t="shared" si="0"/>
+      <c r="E39">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F39" s="10">
-        <f t="shared" si="1"/>
+      <c r="F39">
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
     </row>
@@ -3087,15 +3305,15 @@
       <c r="C40" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40">
         <v>1.2</v>
       </c>
-      <c r="E40" s="10">
-        <f t="shared" si="0"/>
+      <c r="E40">
+        <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
-      <c r="F40" s="10">
-        <f t="shared" si="1"/>
+      <c r="F40">
+        <f t="shared" si="3"/>
         <v>1.3199999999999998</v>
       </c>
     </row>
@@ -3109,15 +3327,15 @@
       <c r="C41" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41">
         <v>80</v>
       </c>
-      <c r="E41" s="10">
-        <f t="shared" si="0"/>
+      <c r="E41">
+        <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="F41" s="10">
-        <f t="shared" si="1"/>
+      <c r="F41">
+        <f t="shared" si="3"/>
         <v>88</v>
       </c>
     </row>
@@ -3134,10 +3352,10 @@
       <c r="D42" s="2">
         <v>30</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42">
         <v>20</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42">
         <v>50</v>
       </c>
     </row>
@@ -3154,10 +3372,10 @@
       <c r="D43" s="2">
         <v>0.3</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43">
         <v>0.2</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43">
         <v>0.6</v>
       </c>
     </row>
@@ -3171,13 +3389,13 @@
       <c r="C44" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" t="s">
         <v>159</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44">
         <v>50</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44">
         <v>200</v>
       </c>
     </row>
@@ -3185,39 +3403,39 @@
       <c r="A45" s="6">
         <v>43</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="10" t="s">
         <v>113</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" t="s">
         <v>159</v>
       </c>
-      <c r="E45" s="10">
-        <v>0</v>
-      </c>
-      <c r="F45" s="10">
-        <v>30</v>
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1">
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A46" s="6">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="10" t="s">
         <v>114</v>
       </c>
       <c r="C46" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="10">
-        <v>20</v>
-      </c>
-      <c r="F46" s="10">
+      <c r="E46" s="1">
+        <v>80</v>
+      </c>
+      <c r="F46" s="1">
         <v>150</v>
       </c>
     </row>
@@ -3225,19 +3443,1051 @@
       <c r="A47" s="6">
         <v>45</v>
       </c>
+      <c r="B47" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47">
+        <v>166</v>
+      </c>
+      <c r="E47">
+        <v>156</v>
+      </c>
+      <c r="F47">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E69632-0D33-45C3-B0EF-EF4581867B0B}">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.25" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2">
+        <v>1630</v>
+      </c>
+      <c r="E2">
+        <v>1500</v>
+      </c>
+      <c r="F2">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>530</v>
+      </c>
+      <c r="E3">
+        <v>450</v>
+      </c>
+      <c r="F3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>90</v>
+      </c>
+      <c r="F4">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="E5">
+        <f>D5-D5*0.1</f>
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="F5">
+        <f>D5+D5*0.1</f>
+        <v>8.8000000000000005E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:E41" si="0">D6-D6*0.1</f>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F6">
+        <f t="shared" ref="F6:F41" si="1">D6+D6*0.1</f>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.2500000000000003E-3</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>2.7499999999999998E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9">
+        <v>6</v>
+      </c>
+      <c r="F9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10">
+        <v>0.4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.36</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.44000000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.54</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0.65999999999999992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.54</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.48600000000000004</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0.59400000000000008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.36</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.32400000000000001</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0.39599999999999996</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="2">
+        <v>40</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="2">
+        <v>40</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19">
+        <v>0.754</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0.82940000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D20">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0.61560000000000004</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0.75240000000000007</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21">
+        <v>0.754</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0.82940000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22">
+        <v>0.754</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.82940000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="7">
+        <v>2</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24">
+        <v>0.02</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>2.7000000000000001E-3</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>3.3E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>1.35E-2</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
+        <v>1.6500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D28">
+        <v>0.45</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D29">
+        <v>0.45</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
+        <v>0.495</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D30">
+        <v>0.35</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="0"/>
+        <v>0.315</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
+        <v>0.38499999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31">
+        <v>0.62</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="0"/>
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
+        <v>0.68199999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D32">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="0"/>
+        <v>0.5129999999999999</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D33">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="0"/>
+        <v>0.5129999999999999</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
+        <v>0.627</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34">
+        <v>0.38</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="0"/>
+        <v>0.34199999999999997</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
+        <v>0.41800000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="D35">
+        <v>0.02</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D36">
+        <v>0.02</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D37">
+        <v>0.02</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D38">
+        <v>0.02</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="0"/>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D39">
+        <v>10</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D40">
+        <v>1.2</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="0"/>
+        <v>1.08</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>1.3199999999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D41">
+        <v>80</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="2">
+        <v>30</v>
+      </c>
+      <c r="E42">
+        <v>20</v>
+      </c>
+      <c r="F42">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E43">
+        <v>0.2</v>
+      </c>
+      <c r="F43">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
+        <v>159</v>
+      </c>
+      <c r="E44">
+        <v>50</v>
+      </c>
+      <c r="F44">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D45" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="1">
+        <v>6</v>
+      </c>
+      <c r="F45" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D46" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="1">
+        <v>80</v>
+      </c>
+      <c r="F46" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
       <c r="B47" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47">
         <v>192</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47">
         <v>182</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47">
         <v>210</v>
       </c>
     </row>
@@ -3248,7 +4498,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE909BEB-9E41-4B6A-ACBB-67A42FDE640F}">
   <dimension ref="A1:B5"/>
   <sheetViews>

--- a/simlab_sensitivity_analysis/sensitive_parameters.xlsx
+++ b/simlab_sensitivity_analysis/sensitive_parameters.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\WOFOST_AP\simlab_sensitivity_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55038085-297B-481F-AE9F-F79C73400D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6313276F-0935-4BC7-A25C-C0E60BBCD61F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="小麦" sheetId="1" r:id="rId1"/>
@@ -1478,8 +1478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1524,13 +1524,13 @@
         <v>101</v>
       </c>
       <c r="D2">
-        <v>960</v>
+        <v>600</v>
       </c>
       <c r="E2" s="1">
-        <v>854</v>
+        <v>500</v>
       </c>
       <c r="F2" s="1">
-        <v>1056</v>
+        <v>800</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1544,13 +1544,13 @@
         <v>100</v>
       </c>
       <c r="D3">
-        <v>850</v>
+        <v>1200</v>
       </c>
       <c r="E3" s="1">
-        <v>765</v>
+        <v>1000</v>
       </c>
       <c r="F3" s="1">
-        <v>935</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -3469,7 +3469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E69632-0D33-45C3-B0EF-EF4581867B0B}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
